--- a/src/RegistanFerghanaLC.Web/wwwroot/files/student.xlsx
+++ b/src/RegistanFerghanaLC.Web/wwwroot/files/student.xlsx
@@ -122,16 +122,15 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="H5" activeCell="H5"/>
+      <selection sqref="H1" activeCell="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" customHeight="true" defaultRowHeight="15"/>
   <cols>
-    <col max="3" min="1" style="1" width="12.140625" customWidth="true" bestFit="true"/>
+    <col max="3" min="1" style="1" width="12.140625" customWidth="true"/>
     <col max="4" min="4" style="1" width="17.99609375" customWidth="true"/>
     <col max="5" min="5" style="1" width="15.42578125" customWidth="true"/>
-    <col max="7" min="6" style="1" width="12.140625" customWidth="true" bestFit="true"/>
-    <col max="8" min="8" style="0" width="12.140625"/>
+    <col max="8" min="6" style="1" width="12.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -153,7 +152,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -179,7 +178,7 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
